--- a/product entry.xlsx
+++ b/product entry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1720d92ff15e284e/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_35F93653D40727C58775BBD28D2A6AD475031256" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{691D9DF7-7565-4CC9-9611-B4B9170CDA63}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_35F93653D40727C58775BB9DF5A3757C488B173E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89B48330-6A2E-48FB-80A8-4A6813037CDA}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Technician ID</t>
   </si>
@@ -128,6 +128,21 @@
   </si>
   <si>
     <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>lym00987</t>
+  </si>
+  <si>
+    <t>bhgty</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>tz800789</t>
+  </si>
+  <si>
+    <t>kmnhj</t>
   </si>
 </sst>
 </file>
@@ -509,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,7 +888,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>9000</v>
       </c>
       <c r="B11" t="s">
@@ -911,7 +926,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>1000</v>
       </c>
       <c r="B12" t="s">
@@ -946,6 +961,82 @@
       </c>
       <c r="L12">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>62455</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>7.7</v>
+      </c>
+      <c r="J13">
+        <v>9.5</v>
+      </c>
+      <c r="K13">
+        <v>5.6</v>
+      </c>
+      <c r="L13">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>6543</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>2E-3</v>
+      </c>
+      <c r="G14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I14">
+        <v>3.4</v>
+      </c>
+      <c r="J14">
+        <v>5.6</v>
+      </c>
+      <c r="K14">
+        <v>7.8</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
